--- a/src/test/resources/urunListesi.xlsx
+++ b/src/test/resources/urunListesi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmetbulutluoz/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmetbulutluoz/Desktop/My Desktop/course/projeler/team135_Cucumber/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47755AB2-6455-0F49-BB6D-1A5089FA21DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E6FD17-F787-9149-AB07-78CBC727490C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{22DF3046-C972-F748-85B5-9CE5F61C6D5F}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
